--- a/Companies/Oil Exploration and Production/Oil and Natural Gas Corporation Ltd/Pruned_Excel/combined_excel_file.xlsx
+++ b/Companies/Oil Exploration and Production/Oil and Natural Gas Corporation Ltd/Pruned_Excel/combined_excel_file.xlsx
@@ -55,10 +55,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,31 +457,31 @@
     <col width="9" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="9" customWidth="1" min="21" max="21"/>
-    <col width="11" customWidth="1" min="22" max="22"/>
-    <col width="11" customWidth="1" min="23" max="23"/>
-    <col width="11" customWidth="1" min="24" max="24"/>
-    <col width="11" customWidth="1" min="25" max="25"/>
-    <col width="11" customWidth="1" min="26" max="26"/>
-    <col width="10" customWidth="1" min="27" max="27"/>
-    <col width="10" customWidth="1" min="28" max="28"/>
-    <col width="10" customWidth="1" min="29" max="29"/>
-    <col width="10" customWidth="1" min="30" max="30"/>
-    <col width="10" customWidth="1" min="31" max="31"/>
-    <col width="11" customWidth="1" min="32" max="32"/>
+    <col width="10" customWidth="1" min="22" max="22"/>
+    <col width="10" customWidth="1" min="23" max="23"/>
+    <col width="10" customWidth="1" min="24" max="24"/>
+    <col width="10" customWidth="1" min="25" max="25"/>
+    <col width="10" customWidth="1" min="26" max="26"/>
+    <col width="9" customWidth="1" min="27" max="27"/>
+    <col width="9" customWidth="1" min="28" max="28"/>
+    <col width="9" customWidth="1" min="29" max="29"/>
+    <col width="9" customWidth="1" min="30" max="30"/>
+    <col width="9" customWidth="1" min="31" max="31"/>
+    <col width="10" customWidth="1" min="32" max="32"/>
     <col width="11" customWidth="1" min="33" max="33"/>
-    <col width="11" customWidth="1" min="34" max="34"/>
-    <col width="11" customWidth="1" min="35" max="35"/>
-    <col width="11" customWidth="1" min="36" max="36"/>
-    <col width="11" customWidth="1" min="37" max="37"/>
-    <col width="11" customWidth="1" min="38" max="38"/>
-    <col width="10" customWidth="1" min="39" max="39"/>
-    <col width="11" customWidth="1" min="40" max="40"/>
-    <col width="11" customWidth="1" min="41" max="41"/>
-    <col width="10" customWidth="1" min="42" max="42"/>
-    <col width="10" customWidth="1" min="43" max="43"/>
-    <col width="10" customWidth="1" min="44" max="44"/>
-    <col width="10" customWidth="1" min="45" max="45"/>
-    <col width="10" customWidth="1" min="46" max="46"/>
+    <col width="10" customWidth="1" min="34" max="34"/>
+    <col width="10" customWidth="1" min="35" max="35"/>
+    <col width="10" customWidth="1" min="36" max="36"/>
+    <col width="10" customWidth="1" min="37" max="37"/>
+    <col width="9" customWidth="1" min="38" max="38"/>
+    <col width="9" customWidth="1" min="39" max="39"/>
+    <col width="10" customWidth="1" min="40" max="40"/>
+    <col width="10" customWidth="1" min="41" max="41"/>
+    <col width="9" customWidth="1" min="42" max="42"/>
+    <col width="9" customWidth="1" min="43" max="43"/>
+    <col width="9" customWidth="1" min="44" max="44"/>
+    <col width="9" customWidth="1" min="45" max="45"/>
+    <col width="9" customWidth="1" min="46" max="46"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1154,30 +1157,20 @@
           <t>Other Operating Income</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>4,991.17</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4,715.30</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5,078.24</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5,675.47</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5,897.26</t>
-        </is>
+      <c r="B5" s="2" t="n">
+        <v>4991.17</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>4715.3</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>5078.24</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>5675.47</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>5897.26</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1304,80 +1297,50 @@
           <t>--</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>14,123.36</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>17,464.03</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>17,396.24</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>18,014.73</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>16,724.52</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>12,756.43</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>12,402.30</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>9,756.78</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>10,215.26</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>11,077.44</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>1,611.85</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>2,085.68</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>3,400.69</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>3,679.97</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>2,060.89</t>
-        </is>
+      <c r="AF5" s="2" t="n">
+        <v>14123.36</v>
+      </c>
+      <c r="AG5" s="2" t="n">
+        <v>17464.03</v>
+      </c>
+      <c r="AH5" s="2" t="n">
+        <v>17396.24</v>
+      </c>
+      <c r="AI5" s="2" t="n">
+        <v>18014.73</v>
+      </c>
+      <c r="AJ5" s="2" t="n">
+        <v>16724.52</v>
+      </c>
+      <c r="AK5" s="2" t="n">
+        <v>12756.43</v>
+      </c>
+      <c r="AL5" s="2" t="n">
+        <v>12402.3</v>
+      </c>
+      <c r="AM5" s="2" t="n">
+        <v>9756.780000000001</v>
+      </c>
+      <c r="AN5" s="2" t="n">
+        <v>10215.26</v>
+      </c>
+      <c r="AO5" s="2" t="n">
+        <v>11077.44</v>
+      </c>
+      <c r="AP5" s="2" t="n">
+        <v>1611.85</v>
+      </c>
+      <c r="AQ5" s="2" t="n">
+        <v>2085.68</v>
+      </c>
+      <c r="AR5" s="2" t="n">
+        <v>3400.69</v>
+      </c>
+      <c r="AS5" s="2" t="n">
+        <v>3679.97</v>
+      </c>
+      <c r="AT5" s="2" t="n">
+        <v>2060.89</v>
       </c>
     </row>
     <row r="6">
@@ -1386,80 +1349,50 @@
           <t>Total Income From Operations</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>14,368.28</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>14,487.98</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>13,157.47</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>13,895.23</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>13,138.33</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1,007.70</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1,016.03</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1,022.73</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>1,034.85</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>1,182.21</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>13,360.58</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>13,471.95</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>12,134.74</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>12,860.38</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>11,956.12</t>
-        </is>
+      <c r="B6" s="2" t="n">
+        <v>14368.28</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>14487.98</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>13157.47</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>13895.23</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>13138.33</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>1007.7</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1016.03</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>1022.73</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>1034.85</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>1182.21</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>13360.58</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>13471.95</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>12134.74</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>12860.38</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>11956.12</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -1486,80 +1419,50 @@
           <t>--</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>13,360.58</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>13,471.95</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>12,134.74</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>12,860.38</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>11,956.12</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>3,345.54</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>3,255.63</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>2,599.07</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>2,991.01</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>3,018.02</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>10,015.04</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>10,216.32</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>9,535.67</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>9,869.37</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>8,938.10</t>
-        </is>
+      <c r="V6" s="2" t="n">
+        <v>13360.58</v>
+      </c>
+      <c r="W6" s="2" t="n">
+        <v>13471.95</v>
+      </c>
+      <c r="X6" s="2" t="n">
+        <v>12134.74</v>
+      </c>
+      <c r="Y6" s="2" t="n">
+        <v>12860.38</v>
+      </c>
+      <c r="Z6" s="2" t="n">
+        <v>11956.12</v>
+      </c>
+      <c r="AA6" s="2" t="n">
+        <v>3345.54</v>
+      </c>
+      <c r="AB6" s="2" t="n">
+        <v>3255.63</v>
+      </c>
+      <c r="AC6" s="2" t="n">
+        <v>2599.07</v>
+      </c>
+      <c r="AD6" s="2" t="n">
+        <v>2991.01</v>
+      </c>
+      <c r="AE6" s="2" t="n">
+        <v>3018.02</v>
+      </c>
+      <c r="AF6" s="2" t="n">
+        <v>10015.04</v>
+      </c>
+      <c r="AG6" s="2" t="n">
+        <v>10216.32</v>
+      </c>
+      <c r="AH6" s="2" t="n">
+        <v>9535.67</v>
+      </c>
+      <c r="AI6" s="2" t="n">
+        <v>9869.370000000001</v>
+      </c>
+      <c r="AJ6" s="2" t="n">
+        <v>8938.1</v>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
